--- a/enron.xlsx
+++ b/enron.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuninggu/Desktop/privacy_project/email-server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A6ECC8-6D1F-8946-9CEF-CE7BC75319CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D03D6F-E401-F64C-AF4C-7A64CE44953D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1900" windowWidth="20480" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6100" yWindow="-21100" windowWidth="38400" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,36 +51,6 @@
   </si>
   <si>
     <t>any morning between 10 and 11:30</t>
-  </si>
-  <si>
-    <t>1. login: pallen pw: ke9davis
-  I don't think these are required by the ISP 
-  2. static IP address
-  IP: 64.216.90.105
-  Sub: 255.255.255.248
-  gate: 64.216.90.110
-  DNS: 151.164.1.8
-  3. Company: 0413
-  RC: 105891</t>
-  </si>
-  <si>
-    <t>Mr. Buckner,
-  For delivered gas behind San Diego, Enron Energy Services is the appropriate 
- Enron entity. I have forwarded your request to Zarin Imam at EES. Her phone 
- number is 713-853-7107.  
- Phillip Allen</t>
-  </si>
-  <si>
-    <t>Lucy,
-  Here are the rentrolls:
-  Open them and save in the rentroll folder. Follow these steps so you don't 
- misplace these files.
-  1. Click on Save As
-  2. Click on the drop down triangle under Save in:
-  3. Click on the (C): drive
-  4. Click on the appropriate folder
-  5. Click on Save:
- Phillip</t>
   </si>
   <si>
     <t>---------------------- Forwarded by Phillip K Allen/HOU/ECT on 10/09/2000 
@@ -2486,6 +2456,39 @@
  John Lavorato
  Thank you for your help
  Phillip Allen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. login: pallen pw: ke9davis
+  I don't think these are required by the ISP 
+  2. static IP address
+  IP: 64.216.90.105
+  Sub: 255.255.255.248
+  gate: 64.216.90.110
+  DNS: 151.164.1.8
+  3. Company: 0413
+  RC: 105891</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr. Buckner,
+  For delivered gas behind San Diego, Enron Energy Services is the appropriate 
+ Enron entity. I have forwarded your request to Zarin Imam at EES. Her phone 
+ number is 713-853-7107.  
+ Phillip Allen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy,
+  Here are the rentrolls:
+  Open them and save in the rentroll folder. Follow these steps so you don't 
+ misplace these files.
+  1. Click on Save As
+  2. Click on the drop down triangle under Save in:
+  3. Click on the (C): drive
+  4. Click on the appropriate folder
+  5. Click on Save:
+ Phillip</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2875,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2888,7 +2891,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
@@ -2903,13 +2906,13 @@
     </row>
     <row r="3" spans="1:4" ht="409.6">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2919,7 +2922,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2929,7 +2932,7 @@
     </row>
     <row r="8" spans="1:4" ht="210">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2"/>
     </row>
@@ -2938,534 +2941,459 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="str">
-        <f>A43</f>
-        <v>---------------------- Forwarded by Phillip K Allen/HOU/ECT on 09/19/2000 
- 04:35 PM ---------------------------
- "George Richards" &lt;cbpres@austin.rr.com&gt; on 09/08/2000 05:21:49 AM
- Please respond to &lt;cbpres@austin.rr.com&gt;
- To: "Phillip Allen" &lt;pallen@enron.com&gt;
- cc: "Larry Lewter" &lt;retwell@mail.sanmarcos.net&gt; 
- Subject: Westgate Proforma-Phillip Allen.xls
- Enclosed is the preliminary proforma for the Westgate property is Austin
- that we told you about. As you can tell from the proforma this project
- should produce a truly exceptional return of over 40% per year over 3 years.
- This is especially attractive when the project is in a market as strong as
- Austin and we are introducing new product that in a very low price range for
- this market. This is the best project in terms of risk and reward that we
- have uncovered to date in the Austin market.
- The project does have approved zoning and will only require a site plan. As
- it is in the "Smart Growth Corridor" area designated by the City of Austin
- for preferred development, this will be fast tracked and should be complete
- in less than 6 months. Additionally, many of the current and more severe
- water treatment ordinances have been waived. I have estimated the lot
- improvement costs based on a 28 lot development we investigated in North
- Austin, which included a detention/retention and filtration pond and street
- widening. Even though this property is not likely to require street
- widening and will have less of a detention/retention and filtration pond
- requirement, I used this data to be cautious.
-  The Lone Star gas line easement in the lower portion of the property is not
- expected to impact sales significantly. Other projects have been quite
- successful with identical relationships to this pipeline, such as the
- adjoining single family residential and a project at St. Edwards University.
- As with most infill projects, the quality of the surrounding neighborhoods
- is uneven. We have included a fence around the entire property, but may
- only put it on Westgate and Cameron Loop. Gated communities are far
- preferred so this is a good idea for both screening and current buyer
- preferences.
- The seller accepted our offer Thursday evening with a price of $680,000 and
- an extended escrow. This will enable us to probably obtain an approved site
- plan before closing on the contract, which will mean that we can close into
- an A&amp;D Loan rather than into a land loan and then an improvement loan.
- This analysis shows your investment at $700,000 for a 50% interest in the
- profits of the project. As we discussed in San Marcos, we can also discuss
- having you invest only in the lots, sell the lots to the construction entity
- with your profit in the lot. I believe this would facilitate the use of a
- 1031 Exchange of the proceeds from this deal into another project that is a
- rental deal or at least into the land for a rental project that would then
- be the equity for that project. You would need to discuss this with an
- exchange expert first. Larry Lewter knows an expert in the field in San
- Antonio if you do not know anyone.
- I will send you a package on the property that was prepared by the broker,
- by Airborne Express today for Saturday delivery.
- Once you have read the package and reviewed this proforma, we would want to
- schedule a tour of the site and the area. Please get back to me as soon as
- your schedule permits regarding the site visit and feel free to call at any
- time. You can reach me over the weekend and in the evening at either
- 512-338-1119 or 512-338-1110. My cell phone is 512-748-7495 and the fax is
- 512-338-1103.  I look forward to hearing from you and to working with you
- on this project that is sure to be a major winner.
- I regret that it took so long to get back to you, but we had some unusual
- events these past few weeks. A small freakish wind storm with severe 60+mpg
- downdrafts hit the South part of Austin where we are building 10 town homes.
- One of these units had just had the roof decked with the siding scheduled to
- start the next day. The severe downdraft hitting the decked roof was enough
- to knock it down. The City shut down the project for a week and it took
- another week to get every thing back on tract. Then last week I had to take
- my wife to emergency. She has a bulge in the material between the vertebra
- in her spine and it causes her extreme pain and has kept her bedridden this
- past week.. There is nothing like having your wife incapacitated to realize
- the enormous number of things she does everyday.  Fortunately, it looks as
- if she will be ok in the long run.
- George W. Richards
- Creekside Builders, LLC
-  - Westgate Proforma-Phillip Allen.xls</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>5</v>
+    <row r="10" spans="1:4" ht="165">
+      <c r="A10" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="165">
+      <c r="A11" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="255">
+      <c r="A12" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
